--- a/biology/Zoologie/Cedarpelta/Cedarpelta.xlsx
+++ b/biology/Zoologie/Cedarpelta/Cedarpelta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cedarpelta bilbeyhallorum
-Cedarpelta est un  genre fossile de dinosaures ankylosaures du Crétacé inférieur retrouvé en Amérique du Nord. Sa taille est estimée à environ sept mètres pour un poids de cinq tonnes[1]. L'espèce type, Cedarpelta bilbeyhallorum, est nommée et décrite en 2001 par Kenneth Carpenter, James Kirkland (en), Donald Burge et John Bird.
-Le genre est basé sur l'holotype CEUM (en) 12360[2].
+Cedarpelta est un  genre fossile de dinosaures ankylosaures du Crétacé inférieur retrouvé en Amérique du Nord. Sa taille est estimée à environ sept mètres pour un poids de cinq tonnes. L'espèce type, Cedarpelta bilbeyhallorum, est nommée et décrite en 2001 par Kenneth Carpenter, James Kirkland (en), Donald Burge et John Bird.
+Le genre est basé sur l'holotype CEUM (en) 12360.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1990, Sue Ann Bilbey et Evan Hall découvrent une carrière avec des restes d'ankylosaures près de Price River (en), dans le comté de Carbon (Utah). En 1998, la découverte est soulignée dans la littérature scientifique[3]. En 2001, l'espèce-type Cedarpelta bilbeyhallorum est nommée par Kenneth Carpenter et al.[2]. Le nom générique est tiré du grec pelte (« petit bouclier »). Le nom spécifique est donné en l'honneur de Bilbey et Hall[2].
-Cedarpelta est basé sur des restes retrouvés dans les carrières CEM et Price River II (PR-2) dans l'est de l'Utah. Ils sont datés de −116 à −109 Ma (millions d'années), ce qui les placent à cheval sur la frontière entre l'Aptien et l'Albien[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, Sue Ann Bilbey et Evan Hall découvrent une carrière avec des restes d'ankylosaures près de Price River (en), dans le comté de Carbon (Utah). En 1998, la découverte est soulignée dans la littérature scientifique. En 2001, l'espèce-type Cedarpelta bilbeyhallorum est nommée par Kenneth Carpenter et al.. Le nom générique est tiré du grec pelte (« petit bouclier »). Le nom spécifique est donné en l'honneur de Bilbey et Hall.
+Cedarpelta est basé sur des restes retrouvés dans les carrières CEM et Price River II (PR-2) dans l'est de l'Utah. Ils sont datés de −116 à −109 Ma (millions d'années), ce qui les placent à cheval sur la frontière entre l'Aptien et l'Albien.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carpenter et ses collègues (2001, 2008) ainsi que Victoria Megan Arbour classent le taxon chez les Ankylosauridae[2],[4],[5]. Cependant, Vickaryous et al. (2004) affirment qu'il est plutôt une base des Nodosauridae[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carpenter et ses collègues (2001, 2008) ainsi que Victoria Megan Arbour classent le taxon chez les Ankylosauridae. Cependant, Vickaryous et al. (2004) affirment qu'il est plutôt une base des Nodosauridae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Cladogramme Ankylosauridae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme de la famille Ankylosauridae résulte d'une analyse menée en 2011 par les paléontologues Richard S. Thompson, Jolyon C. Parish, Susannah CR Maidment et Paul M. Barrett.
 </t>
         </is>
       </c>
